--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H2">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I2">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J2">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>528.1290370538013</v>
+        <v>388.3560683399137</v>
       </c>
       <c r="R2">
-        <v>4753.161333484212</v>
+        <v>3495.204615059223</v>
       </c>
       <c r="S2">
-        <v>0.02116004011124155</v>
+        <v>0.01365781151433998</v>
       </c>
       <c r="T2">
-        <v>0.02224954524740872</v>
+        <v>0.01425786447520823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H3">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I3">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J3">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>813.7739704998197</v>
+        <v>688.7438334047187</v>
       </c>
       <c r="R3">
-        <v>7323.965734498378</v>
+        <v>6198.694500642468</v>
       </c>
       <c r="S3">
-        <v>0.03260470197457881</v>
+        <v>0.02422192988644703</v>
       </c>
       <c r="T3">
-        <v>0.03428347905050844</v>
+        <v>0.02528611507680826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H4">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I4">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J4">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>352.9374559937424</v>
+        <v>395.6008669847629</v>
       </c>
       <c r="R4">
-        <v>3176.437103943681</v>
+        <v>3560.407802862867</v>
       </c>
       <c r="S4">
-        <v>0.01414080688925715</v>
+        <v>0.01391259855751318</v>
       </c>
       <c r="T4">
-        <v>0.01486890010904311</v>
+        <v>0.01452384553138171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H5">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I5">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J5">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>204.758019911681</v>
+        <v>127.8460077130005</v>
       </c>
       <c r="R5">
-        <v>1228.548119470086</v>
+        <v>767.0760462780031</v>
       </c>
       <c r="S5">
-        <v>0.008203843398953633</v>
+        <v>0.004496123064766228</v>
       </c>
       <c r="T5">
-        <v>0.005750832983556958</v>
+        <v>0.003129106165312443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H6">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I6">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J6">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>596.5191647740008</v>
+        <v>341.5722850444043</v>
       </c>
       <c r="R6">
-        <v>5368.672482966009</v>
+        <v>3074.150565399639</v>
       </c>
       <c r="S6">
-        <v>0.02390016183195832</v>
+        <v>0.01201250673795489</v>
       </c>
       <c r="T6">
-        <v>0.02513075255552276</v>
+        <v>0.01254027359342741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J7">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>811.526102026112</v>
+        <v>705.0803534900695</v>
       </c>
       <c r="R7">
-        <v>7303.734918235008</v>
+        <v>6345.723181410624</v>
       </c>
       <c r="S7">
-        <v>0.0325146387821935</v>
+        <v>0.02479645705446507</v>
       </c>
       <c r="T7">
-        <v>0.03418877861215536</v>
+        <v>0.02588588397025986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J8">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>1250.44974215791</v>
+        <v>1250.449742157909</v>
       </c>
       <c r="R8">
-        <v>11254.04767942119</v>
+        <v>11254.04767942118</v>
       </c>
       <c r="S8">
-        <v>0.05010057172534815</v>
+        <v>0.04397615559234587</v>
       </c>
       <c r="T8">
-        <v>0.05268019019169877</v>
+        <v>0.0459082383673266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J9">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>542.3257155474986</v>
+        <v>718.233656878144</v>
       </c>
       <c r="R9">
-        <v>4880.931439927487</v>
+        <v>6464.102911903296</v>
       </c>
       <c r="S9">
-        <v>0.02172884482618176</v>
+        <v>0.02525903599454234</v>
       </c>
       <c r="T9">
-        <v>0.02284763703624603</v>
+        <v>0.02636878621486782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J10">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>314.632345694304</v>
+        <v>232.110981800544</v>
       </c>
       <c r="R10">
-        <v>1887.794074165824</v>
+        <v>1392.665890803264</v>
       </c>
       <c r="S10">
-        <v>0.0126060727361735</v>
+        <v>0.008162941944982127</v>
       </c>
       <c r="T10">
-        <v>0.008836762887691299</v>
+        <v>0.00568105267564761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J11">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>916.6147638339413</v>
+        <v>620.1419962639146</v>
       </c>
       <c r="R11">
-        <v>8249.532874505472</v>
+        <v>5581.277966375232</v>
       </c>
       <c r="S11">
-        <v>0.03672512550622461</v>
+        <v>0.0218093218764533</v>
       </c>
       <c r="T11">
-        <v>0.0386160582575363</v>
+        <v>0.02276750966171846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H12">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I12">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J12">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>1829.166531323032</v>
+        <v>2207.832403140959</v>
       </c>
       <c r="R12">
-        <v>16462.49878190729</v>
+        <v>19870.49162826863</v>
       </c>
       <c r="S12">
-        <v>0.07328746283077968</v>
+        <v>0.07764564860863375</v>
       </c>
       <c r="T12">
-        <v>0.07706094656479091</v>
+        <v>0.08105699319317627</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H13">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I13">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J13">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>2818.493221285403</v>
+        <v>3915.558624729676</v>
       </c>
       <c r="R13">
-        <v>25366.43899156863</v>
+        <v>35240.02762256708</v>
       </c>
       <c r="S13">
-        <v>0.1129258674136979</v>
+        <v>0.1377034274203716</v>
       </c>
       <c r="T13">
-        <v>0.1187402851514032</v>
+        <v>0.1437533973777504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H14">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I14">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J14">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>1222.393272968785</v>
+        <v>2249.019608662697</v>
       </c>
       <c r="R14">
-        <v>11001.53945671907</v>
+        <v>20241.17647796427</v>
       </c>
       <c r="S14">
-        <v>0.04897646005609863</v>
+        <v>0.07909413142035568</v>
       </c>
       <c r="T14">
-        <v>0.05149819935819275</v>
+        <v>0.08256911478033656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H15">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I15">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J15">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>709.1761496996941</v>
+        <v>726.8138222934051</v>
       </c>
       <c r="R15">
-        <v>4255.056898198164</v>
+        <v>4360.88293376043</v>
       </c>
       <c r="S15">
-        <v>0.02841388130691375</v>
+        <v>0.02556078557838282</v>
       </c>
       <c r="T15">
-        <v>0.01991791869546335</v>
+        <v>0.01778919540043899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H16">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I16">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J16">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>2066.034652410554</v>
+        <v>1941.863203424621</v>
       </c>
       <c r="R16">
-        <v>18594.31187169499</v>
+        <v>17476.76883082159</v>
       </c>
       <c r="S16">
-        <v>0.08277783088788729</v>
+        <v>0.06829197167531453</v>
       </c>
       <c r="T16">
-        <v>0.08703996231292263</v>
+        <v>0.07129236451016054</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H17">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I17">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J17">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>352.2055489921319</v>
+        <v>351.3059250903607</v>
       </c>
       <c r="R17">
-        <v>2113.233293952792</v>
+        <v>2107.835550542164</v>
       </c>
       <c r="S17">
-        <v>0.01411148227268584</v>
+        <v>0.01235482203037294</v>
       </c>
       <c r="T17">
-        <v>0.009892043735377954</v>
+        <v>0.008598418955551438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H18">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I18">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J18">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>542.700150770536</v>
+        <v>623.0359437379707</v>
       </c>
       <c r="R18">
-        <v>3256.200904623216</v>
+        <v>3738.215662427824</v>
       </c>
       <c r="S18">
-        <v>0.02174384696350549</v>
+        <v>0.02191109700591636</v>
       </c>
       <c r="T18">
-        <v>0.01524227441044172</v>
+        <v>0.01524917083948562</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H19">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I19">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J19">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>235.3715128818019</v>
+        <v>357.859551768326</v>
       </c>
       <c r="R19">
-        <v>1412.229077290812</v>
+        <v>2147.157310609956</v>
       </c>
       <c r="S19">
-        <v>0.009430404890074559</v>
+        <v>0.01258530175040311</v>
       </c>
       <c r="T19">
-        <v>0.006610643432937148</v>
+        <v>0.008758822819622133</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H20">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I20">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J20">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>136.551686716269</v>
+        <v>115.649177829801</v>
       </c>
       <c r="R20">
-        <v>546.206746865076</v>
+        <v>462.5967113192041</v>
       </c>
       <c r="S20">
-        <v>0.00547108559736243</v>
+        <v>0.004067181644256727</v>
       </c>
       <c r="T20">
-        <v>0.002556793442545747</v>
+        <v>0.001887054391107365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H21">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I21">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J21">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>397.8144452832879</v>
+        <v>308.9854320950753</v>
       </c>
       <c r="R21">
-        <v>2386.886671699728</v>
+        <v>1853.912592570452</v>
       </c>
       <c r="S21">
-        <v>0.01593885022112152</v>
+        <v>0.01086648345748976</v>
       </c>
       <c r="T21">
-        <v>0.01117301502650463</v>
+        <v>0.007562600020572341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H22">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I22">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J22">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>1759.758613986553</v>
+        <v>2033.377729072379</v>
       </c>
       <c r="R22">
-        <v>15837.82752587897</v>
+        <v>18300.39956165141</v>
       </c>
       <c r="S22">
-        <v>0.07050656230868242</v>
+        <v>0.07151037932750892</v>
       </c>
       <c r="T22">
-        <v>0.07413686080362668</v>
+        <v>0.0746521721984407</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H23">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I23">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J23">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>2711.545198146739</v>
+        <v>3606.165800028922</v>
       </c>
       <c r="R23">
-        <v>24403.90678332066</v>
+        <v>32455.4922002603</v>
       </c>
       <c r="S23">
-        <v>0.1086408834407346</v>
+        <v>0.1268226166692606</v>
       </c>
       <c r="T23">
-        <v>0.1142346724829178</v>
+        <v>0.1323945405867599</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H24">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I24">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J24">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>1176.00943104406</v>
+        <v>2071.310475376619</v>
       </c>
       <c r="R24">
-        <v>10584.08487939654</v>
+        <v>18641.79427838957</v>
       </c>
       <c r="S24">
-        <v>0.04711804310346156</v>
+        <v>0.07284440843502152</v>
       </c>
       <c r="T24">
-        <v>0.04954409474124154</v>
+        <v>0.07604481158293704</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H25">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I25">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J25">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>682.2663857539496</v>
+        <v>669.383707445761</v>
       </c>
       <c r="R25">
-        <v>4093.598314523698</v>
+        <v>4016.302244674567</v>
       </c>
       <c r="S25">
-        <v>0.0273357135779578</v>
+        <v>0.02354106772721359</v>
       </c>
       <c r="T25">
-        <v>0.01916213116564806</v>
+        <v>0.01638355959171056</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H26">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I26">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J26">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>1987.638749187302</v>
+        <v>1788.424422583617</v>
       </c>
       <c r="R26">
-        <v>17888.74874268572</v>
+        <v>16095.81980325256</v>
       </c>
       <c r="S26">
-        <v>0.07963681734692561</v>
+        <v>0.06289579502568816</v>
       </c>
       <c r="T26">
-        <v>0.08373722174461802</v>
+        <v>0.06565910801999188</v>
       </c>
     </row>
   </sheetData>
